--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Tgfb3-Tgfbr2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Tgfb3-Tgfbr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,7 +82,13 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
   <si>
     <t>sCs</t>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>Tgfbr2</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.02080903193445</v>
+        <v>1.072949666666667</v>
       </c>
       <c r="H2">
-        <v>1.02080903193445</v>
+        <v>3.218849</v>
       </c>
       <c r="I2">
-        <v>0.04322376819133032</v>
+        <v>0.03746460787340014</v>
       </c>
       <c r="J2">
-        <v>0.04322376819133032</v>
+        <v>0.03746460787340014</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.596951511973639</v>
+        <v>19.367679</v>
       </c>
       <c r="N2">
-        <v>8.596951511973639</v>
+        <v>58.10303699999999</v>
       </c>
       <c r="O2">
-        <v>0.06453898253178211</v>
+        <v>0.1308423210854057</v>
       </c>
       <c r="P2">
-        <v>0.06453898253178211</v>
+        <v>0.1308423210854057</v>
       </c>
       <c r="Q2">
-        <v>8.775845750525217</v>
+        <v>20.780544727157</v>
       </c>
       <c r="R2">
-        <v>8.775845750525217</v>
+        <v>187.024902544413</v>
       </c>
       <c r="S2">
-        <v>0.002789618020258067</v>
+        <v>0.004901956252710241</v>
       </c>
       <c r="T2">
-        <v>0.002789618020258067</v>
+        <v>0.004901956252710241</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.02080903193445</v>
+        <v>1.072949666666667</v>
       </c>
       <c r="H3">
-        <v>1.02080903193445</v>
+        <v>3.218849</v>
       </c>
       <c r="I3">
-        <v>0.04322376819133032</v>
+        <v>0.03746460787340014</v>
       </c>
       <c r="J3">
-        <v>0.04322376819133032</v>
+        <v>0.03746460787340014</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>26.2704820827443</v>
+        <v>26.60585</v>
       </c>
       <c r="N3">
-        <v>26.2704820827443</v>
+        <v>79.81755000000001</v>
       </c>
       <c r="O3">
-        <v>0.1972176046216286</v>
+        <v>0.1797412673170669</v>
       </c>
       <c r="P3">
-        <v>0.1972176046216286</v>
+        <v>0.1797412673170669</v>
       </c>
       <c r="Q3">
-        <v>26.81714538333753</v>
+        <v>28.54673788888334</v>
       </c>
       <c r="R3">
-        <v>26.81714538333753</v>
+        <v>256.92064099995</v>
       </c>
       <c r="S3">
-        <v>0.00852448802541471</v>
+        <v>0.006733936098701905</v>
       </c>
       <c r="T3">
-        <v>0.00852448802541471</v>
+        <v>0.006733936098701905</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.02080903193445</v>
+        <v>1.072949666666667</v>
       </c>
       <c r="H4">
-        <v>1.02080903193445</v>
+        <v>3.218849</v>
       </c>
       <c r="I4">
-        <v>0.04322376819133032</v>
+        <v>0.03746460787340014</v>
       </c>
       <c r="J4">
-        <v>0.04322376819133032</v>
+        <v>0.03746460787340014</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>23.52039207512</v>
+        <v>25.27238933333333</v>
       </c>
       <c r="N4">
-        <v>23.52039207512</v>
+        <v>75.817168</v>
       </c>
       <c r="O4">
-        <v>0.1765721455056045</v>
+        <v>0.1707328007526035</v>
       </c>
       <c r="P4">
-        <v>0.1765721455056045</v>
+        <v>0.1707328007526035</v>
       </c>
       <c r="Q4">
-        <v>24.00982866492196</v>
+        <v>27.11600171107022</v>
       </c>
       <c r="R4">
-        <v>24.00982866492196</v>
+        <v>244.044015399632</v>
       </c>
       <c r="S4">
-        <v>0.007632113486380098</v>
+        <v>0.006396437431323647</v>
       </c>
       <c r="T4">
-        <v>0.007632113486380098</v>
+        <v>0.006396437431323647</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.02080903193445</v>
+        <v>1.072949666666667</v>
       </c>
       <c r="H5">
-        <v>1.02080903193445</v>
+        <v>3.218849</v>
       </c>
       <c r="I5">
-        <v>0.04322376819133032</v>
+        <v>0.03746460787340014</v>
       </c>
       <c r="J5">
-        <v>0.04322376819133032</v>
+        <v>0.03746460787340014</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>36.4379275743489</v>
+        <v>36.48521533333334</v>
       </c>
       <c r="N5">
-        <v>36.4379275743489</v>
+        <v>109.455646</v>
       </c>
       <c r="O5">
-        <v>0.2735465900836939</v>
+        <v>0.2464833426614604</v>
       </c>
       <c r="P5">
-        <v>0.2735465900836939</v>
+        <v>0.2464833426614603</v>
       </c>
       <c r="Q5">
-        <v>37.1961655728687</v>
+        <v>39.14679963016156</v>
       </c>
       <c r="R5">
-        <v>37.1961655728687</v>
+        <v>352.321196671454</v>
       </c>
       <c r="S5">
-        <v>0.01182371439930644</v>
+        <v>0.009234401780136533</v>
       </c>
       <c r="T5">
-        <v>0.01182371439930644</v>
+        <v>0.009234401780136531</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.02080903193445</v>
+        <v>1.072949666666667</v>
       </c>
       <c r="H6">
-        <v>1.02080903193445</v>
+        <v>3.218849</v>
       </c>
       <c r="I6">
-        <v>0.04322376819133032</v>
+        <v>0.03746460787340014</v>
       </c>
       <c r="J6">
-        <v>0.04322376819133032</v>
+        <v>0.03746460787340014</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>28.9585582898079</v>
+        <v>29.48431666666667</v>
       </c>
       <c r="N6">
-        <v>28.9585582898079</v>
+        <v>88.45295</v>
       </c>
       <c r="O6">
-        <v>0.2173975141081657</v>
+        <v>0.1991873382599836</v>
       </c>
       <c r="P6">
-        <v>0.2173975141081657</v>
+        <v>0.1991873382599836</v>
       </c>
       <c r="Q6">
-        <v>29.56115785403615</v>
+        <v>31.63518773939445</v>
       </c>
       <c r="R6">
-        <v>29.56115785403615</v>
+        <v>284.71668965455</v>
       </c>
       <c r="S6">
-        <v>0.009396739755182818</v>
+        <v>0.007462475521256598</v>
       </c>
       <c r="T6">
-        <v>0.009396739755182818</v>
+        <v>0.007462475521256598</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.02080903193445</v>
+        <v>1.072949666666667</v>
       </c>
       <c r="H7">
-        <v>1.02080903193445</v>
+        <v>3.218849</v>
       </c>
       <c r="I7">
-        <v>0.04322376819133032</v>
+        <v>0.03746460787340014</v>
       </c>
       <c r="J7">
-        <v>0.04322376819133032</v>
+        <v>0.03746460787340014</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.421251595856051</v>
+        <v>10.80759633333333</v>
       </c>
       <c r="N7">
-        <v>9.421251595856051</v>
+        <v>32.422789</v>
       </c>
       <c r="O7">
-        <v>0.07072716314912518</v>
+        <v>0.07301292992347995</v>
       </c>
       <c r="P7">
-        <v>0.07072716314912518</v>
+        <v>0.07301292992347994</v>
       </c>
       <c r="Q7">
-        <v>9.617298721176708</v>
+        <v>11.59600688331789</v>
       </c>
       <c r="R7">
-        <v>9.617298721176708</v>
+        <v>104.364061949861</v>
       </c>
       <c r="S7">
-        <v>0.003057094504788187</v>
+        <v>0.00273540078927122</v>
       </c>
       <c r="T7">
-        <v>0.003057094504788187</v>
+        <v>0.002735400789271219</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>12.4182505710072</v>
+        <v>12.55835133333333</v>
       </c>
       <c r="H8">
-        <v>12.4182505710072</v>
+        <v>37.675054</v>
       </c>
       <c r="I8">
-        <v>0.5258217425896935</v>
+        <v>0.4385049204604426</v>
       </c>
       <c r="J8">
-        <v>0.5258217425896935</v>
+        <v>0.4385049204604428</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.596951511973639</v>
+        <v>19.367679</v>
       </c>
       <c r="N8">
-        <v>8.596951511973639</v>
+        <v>58.10303699999999</v>
       </c>
       <c r="O8">
-        <v>0.06453898253178211</v>
+        <v>0.1308423210854057</v>
       </c>
       <c r="P8">
-        <v>0.06453898253178211</v>
+        <v>0.1308423210854057</v>
       </c>
       <c r="Q8">
-        <v>106.7590980224878</v>
+        <v>243.226117393222</v>
       </c>
       <c r="R8">
-        <v>106.7590980224878</v>
+        <v>2189.035056538998</v>
       </c>
       <c r="S8">
-        <v>0.03393600025982746</v>
+        <v>0.05737500160041555</v>
       </c>
       <c r="T8">
-        <v>0.03393600025982746</v>
+        <v>0.05737500160041556</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>12.4182505710072</v>
+        <v>12.55835133333333</v>
       </c>
       <c r="H9">
-        <v>12.4182505710072</v>
+        <v>37.675054</v>
       </c>
       <c r="I9">
-        <v>0.5258217425896935</v>
+        <v>0.4385049204604426</v>
       </c>
       <c r="J9">
-        <v>0.5258217425896935</v>
+        <v>0.4385049204604428</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>26.2704820827443</v>
+        <v>26.60585</v>
       </c>
       <c r="N9">
-        <v>26.2704820827443</v>
+        <v>79.81755000000001</v>
       </c>
       <c r="O9">
-        <v>0.1972176046216286</v>
+        <v>0.1797412673170669</v>
       </c>
       <c r="P9">
-        <v>0.1972176046216286</v>
+        <v>0.1797412673170669</v>
       </c>
       <c r="Q9">
-        <v>326.2334291246738</v>
+        <v>334.1256118219667</v>
       </c>
       <c r="R9">
-        <v>326.2334291246738</v>
+        <v>3007.130506397701</v>
       </c>
       <c r="S9">
-        <v>0.1037013045315099</v>
+        <v>0.07881743012832959</v>
       </c>
       <c r="T9">
-        <v>0.1037013045315099</v>
+        <v>0.0788174301283296</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>12.4182505710072</v>
+        <v>12.55835133333333</v>
       </c>
       <c r="H10">
-        <v>12.4182505710072</v>
+        <v>37.675054</v>
       </c>
       <c r="I10">
-        <v>0.5258217425896935</v>
+        <v>0.4385049204604426</v>
       </c>
       <c r="J10">
-        <v>0.5258217425896935</v>
+        <v>0.4385049204604428</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.52039207512</v>
+        <v>25.27238933333333</v>
       </c>
       <c r="N10">
-        <v>23.52039207512</v>
+        <v>75.817168</v>
       </c>
       <c r="O10">
-        <v>0.1765721455056045</v>
+        <v>0.1707328007526035</v>
       </c>
       <c r="P10">
-        <v>0.1765721455056045</v>
+        <v>0.1707328007526035</v>
       </c>
       <c r="Q10">
-        <v>292.0821223171721</v>
+        <v>317.3795442807858</v>
       </c>
       <c r="R10">
-        <v>292.0821223171721</v>
+        <v>2856.415898527072</v>
       </c>
       <c r="S10">
-        <v>0.09284547324255789</v>
+        <v>0.07486717321400901</v>
       </c>
       <c r="T10">
-        <v>0.09284547324255789</v>
+        <v>0.07486717321400903</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>12.4182505710072</v>
+        <v>12.55835133333333</v>
       </c>
       <c r="H11">
-        <v>12.4182505710072</v>
+        <v>37.675054</v>
       </c>
       <c r="I11">
-        <v>0.5258217425896935</v>
+        <v>0.4385049204604426</v>
       </c>
       <c r="J11">
-        <v>0.5258217425896935</v>
+        <v>0.4385049204604428</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>36.4379275743489</v>
+        <v>36.48521533333334</v>
       </c>
       <c r="N11">
-        <v>36.4379275743489</v>
+        <v>109.455646</v>
       </c>
       <c r="O11">
-        <v>0.2735465900836939</v>
+        <v>0.2464833426614604</v>
       </c>
       <c r="P11">
-        <v>0.2735465900836939</v>
+        <v>0.2464833426614603</v>
       </c>
       <c r="Q11">
-        <v>452.4953149064772</v>
+        <v>458.1941526283205</v>
       </c>
       <c r="R11">
-        <v>452.4953149064772</v>
+        <v>4123.747373654885</v>
       </c>
       <c r="S11">
-        <v>0.1438367446772765</v>
+        <v>0.1080841585685877</v>
       </c>
       <c r="T11">
-        <v>0.1438367446772765</v>
+        <v>0.1080841585685877</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>12.4182505710072</v>
+        <v>12.55835133333333</v>
       </c>
       <c r="H12">
-        <v>12.4182505710072</v>
+        <v>37.675054</v>
       </c>
       <c r="I12">
-        <v>0.5258217425896935</v>
+        <v>0.4385049204604426</v>
       </c>
       <c r="J12">
-        <v>0.5258217425896935</v>
+        <v>0.4385049204604428</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>28.9585582898079</v>
+        <v>29.48431666666667</v>
       </c>
       <c r="N12">
-        <v>28.9585582898079</v>
+        <v>88.45295</v>
       </c>
       <c r="O12">
-        <v>0.2173975141081657</v>
+        <v>0.1991873382599836</v>
       </c>
       <c r="P12">
-        <v>0.2173975141081657</v>
+        <v>0.1991873382599836</v>
       </c>
       <c r="Q12">
-        <v>359.6146330179522</v>
+        <v>370.2744075232556</v>
       </c>
       <c r="R12">
-        <v>359.6146330179522</v>
+        <v>3332.4696677093</v>
       </c>
       <c r="S12">
-        <v>0.1143123397030232</v>
+        <v>0.08734462792042139</v>
       </c>
       <c r="T12">
-        <v>0.1143123397030232</v>
+        <v>0.08734462792042141</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>12.4182505710072</v>
+        <v>12.55835133333333</v>
       </c>
       <c r="H13">
-        <v>12.4182505710072</v>
+        <v>37.675054</v>
       </c>
       <c r="I13">
-        <v>0.5258217425896935</v>
+        <v>0.4385049204604426</v>
       </c>
       <c r="J13">
-        <v>0.5258217425896935</v>
+        <v>0.4385049204604428</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>9.421251595856051</v>
+        <v>10.80759633333333</v>
       </c>
       <c r="N13">
-        <v>9.421251595856051</v>
+        <v>32.422789</v>
       </c>
       <c r="O13">
-        <v>0.07072716314912518</v>
+        <v>0.07301292992347995</v>
       </c>
       <c r="P13">
-        <v>0.07072716314912518</v>
+        <v>0.07301292992347994</v>
       </c>
       <c r="Q13">
-        <v>116.9954630098419</v>
+        <v>135.7255918228451</v>
       </c>
       <c r="R13">
-        <v>116.9954630098419</v>
+        <v>1221.530326405606</v>
       </c>
       <c r="S13">
-        <v>0.03718988017549855</v>
+        <v>0.03201652902867945</v>
       </c>
       <c r="T13">
-        <v>0.03718988017549855</v>
+        <v>0.03201652902867945</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.727116116703574</v>
+        <v>0.2760636666666667</v>
       </c>
       <c r="H14">
-        <v>0.727116116703574</v>
+        <v>0.828191</v>
       </c>
       <c r="I14">
-        <v>0.03078802938980434</v>
+        <v>0.009639424234960735</v>
       </c>
       <c r="J14">
-        <v>0.03078802938980434</v>
+        <v>0.009639424234960739</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.596951511973639</v>
+        <v>19.367679</v>
       </c>
       <c r="N14">
-        <v>8.596951511973639</v>
+        <v>58.10303699999999</v>
       </c>
       <c r="O14">
-        <v>0.06453898253178211</v>
+        <v>0.1308423210854057</v>
       </c>
       <c r="P14">
-        <v>0.06453898253178211</v>
+        <v>0.1308423210854057</v>
       </c>
       <c r="Q14">
-        <v>6.250981998875192</v>
+        <v>5.346712479562999</v>
       </c>
       <c r="R14">
-        <v>6.250981998875192</v>
+        <v>48.120412316067</v>
       </c>
       <c r="S14">
-        <v>0.001987028090976577</v>
+        <v>0.001261244640829174</v>
       </c>
       <c r="T14">
-        <v>0.001987028090976577</v>
+        <v>0.001261244640829175</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.727116116703574</v>
+        <v>0.2760636666666667</v>
       </c>
       <c r="H15">
-        <v>0.727116116703574</v>
+        <v>0.828191</v>
       </c>
       <c r="I15">
-        <v>0.03078802938980434</v>
+        <v>0.009639424234960735</v>
       </c>
       <c r="J15">
-        <v>0.03078802938980434</v>
+        <v>0.009639424234960739</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>26.2704820827443</v>
+        <v>26.60585</v>
       </c>
       <c r="N15">
-        <v>26.2704820827443</v>
+        <v>79.81755000000001</v>
       </c>
       <c r="O15">
-        <v>0.1972176046216286</v>
+        <v>0.1797412673170669</v>
       </c>
       <c r="P15">
-        <v>0.1972176046216286</v>
+        <v>0.1797412673170669</v>
       </c>
       <c r="Q15">
-        <v>19.10169091593585</v>
+        <v>7.344908505783334</v>
       </c>
       <c r="R15">
-        <v>19.10169091593585</v>
+        <v>66.10417655205001</v>
       </c>
       <c r="S15">
-        <v>0.006071941407277514</v>
+        <v>0.001732602328198691</v>
       </c>
       <c r="T15">
-        <v>0.006071941407277514</v>
+        <v>0.001732602328198691</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.727116116703574</v>
+        <v>0.2760636666666667</v>
       </c>
       <c r="H16">
-        <v>0.727116116703574</v>
+        <v>0.828191</v>
       </c>
       <c r="I16">
-        <v>0.03078802938980434</v>
+        <v>0.009639424234960735</v>
       </c>
       <c r="J16">
-        <v>0.03078802938980434</v>
+        <v>0.009639424234960739</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>23.52039207512</v>
+        <v>25.27238933333333</v>
       </c>
       <c r="N16">
-        <v>23.52039207512</v>
+        <v>75.817168</v>
       </c>
       <c r="O16">
-        <v>0.1765721455056045</v>
+        <v>0.1707328007526035</v>
       </c>
       <c r="P16">
-        <v>0.1765721455056045</v>
+        <v>0.1707328007526035</v>
       </c>
       <c r="Q16">
-        <v>17.10205614900677</v>
+        <v>6.976788464787555</v>
       </c>
       <c r="R16">
-        <v>17.10205614900677</v>
+        <v>62.79109618308799</v>
       </c>
       <c r="S16">
-        <v>0.005436308405247361</v>
+        <v>0.001645765897277369</v>
       </c>
       <c r="T16">
-        <v>0.005436308405247361</v>
+        <v>0.00164576589727737</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.727116116703574</v>
+        <v>0.2760636666666667</v>
       </c>
       <c r="H17">
-        <v>0.727116116703574</v>
+        <v>0.828191</v>
       </c>
       <c r="I17">
-        <v>0.03078802938980434</v>
+        <v>0.009639424234960735</v>
       </c>
       <c r="J17">
-        <v>0.03078802938980434</v>
+        <v>0.009639424234960739</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>36.4379275743489</v>
+        <v>36.48521533333334</v>
       </c>
       <c r="N17">
-        <v>36.4379275743489</v>
+        <v>109.455646</v>
       </c>
       <c r="O17">
-        <v>0.2735465900836939</v>
+        <v>0.2464833426614604</v>
       </c>
       <c r="P17">
-        <v>0.2735465900836939</v>
+        <v>0.2464833426614603</v>
       </c>
       <c r="Q17">
-        <v>26.49460439858665</v>
+        <v>10.07224232404289</v>
       </c>
       <c r="R17">
-        <v>26.49460439858665</v>
+        <v>90.65018091638601</v>
       </c>
       <c r="S17">
-        <v>0.008421960454977529</v>
+        <v>0.002375957506765012</v>
       </c>
       <c r="T17">
-        <v>0.008421960454977529</v>
+        <v>0.002375957506765013</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.727116116703574</v>
+        <v>0.2760636666666667</v>
       </c>
       <c r="H18">
-        <v>0.727116116703574</v>
+        <v>0.828191</v>
       </c>
       <c r="I18">
-        <v>0.03078802938980434</v>
+        <v>0.009639424234960735</v>
       </c>
       <c r="J18">
-        <v>0.03078802938980434</v>
+        <v>0.009639424234960739</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>28.9585582898079</v>
+        <v>29.48431666666667</v>
       </c>
       <c r="N18">
-        <v>28.9585582898079</v>
+        <v>88.45295</v>
       </c>
       <c r="O18">
-        <v>0.2173975141081657</v>
+        <v>0.1991873382599836</v>
       </c>
       <c r="P18">
-        <v>0.2173975141081657</v>
+        <v>0.1991873382599836</v>
       </c>
       <c r="Q18">
-        <v>21.05623444901921</v>
+        <v>8.139548568161111</v>
       </c>
       <c r="R18">
-        <v>21.05623444901921</v>
+        <v>73.25593711345</v>
       </c>
       <c r="S18">
-        <v>0.006693241053632611</v>
+        <v>0.001920051255720608</v>
       </c>
       <c r="T18">
-        <v>0.006693241053632611</v>
+        <v>0.001920051255720608</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.727116116703574</v>
+        <v>0.2760636666666667</v>
       </c>
       <c r="H19">
-        <v>0.727116116703574</v>
+        <v>0.828191</v>
       </c>
       <c r="I19">
-        <v>0.03078802938980434</v>
+        <v>0.009639424234960735</v>
       </c>
       <c r="J19">
-        <v>0.03078802938980434</v>
+        <v>0.009639424234960739</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>9.421251595856051</v>
+        <v>10.80759633333333</v>
       </c>
       <c r="N19">
-        <v>9.421251595856051</v>
+        <v>32.422789</v>
       </c>
       <c r="O19">
-        <v>0.07072716314912518</v>
+        <v>0.07301292992347995</v>
       </c>
       <c r="P19">
-        <v>0.07072716314912518</v>
+        <v>0.07301292992347994</v>
       </c>
       <c r="Q19">
-        <v>6.850343874866201</v>
+        <v>2.983584671633222</v>
       </c>
       <c r="R19">
-        <v>6.850343874866201</v>
+        <v>26.852262044699</v>
       </c>
       <c r="S19">
-        <v>0.002177549977692753</v>
+        <v>0.0007038026061698825</v>
       </c>
       <c r="T19">
-        <v>0.002177549977692753</v>
+        <v>0.0007038026061698826</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>9.450669239726009</v>
+        <v>0.73368</v>
       </c>
       <c r="H20">
-        <v>9.450669239726009</v>
+        <v>2.20104</v>
       </c>
       <c r="I20">
-        <v>0.4001664598291719</v>
+        <v>0.02561819473782978</v>
       </c>
       <c r="J20">
-        <v>0.4001664598291719</v>
+        <v>0.02561819473782978</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>8.596951511973639</v>
+        <v>19.367679</v>
       </c>
       <c r="N20">
-        <v>8.596951511973639</v>
+        <v>58.10303699999999</v>
       </c>
       <c r="O20">
-        <v>0.06453898253178211</v>
+        <v>0.1308423210854057</v>
       </c>
       <c r="P20">
-        <v>0.06453898253178211</v>
+        <v>0.1308423210854057</v>
       </c>
       <c r="Q20">
-        <v>81.24694520962528</v>
+        <v>14.20967872872</v>
       </c>
       <c r="R20">
-        <v>81.24694520962528</v>
+        <v>127.88710855848</v>
       </c>
       <c r="S20">
-        <v>0.02582633616072002</v>
+        <v>0.003351944061515576</v>
       </c>
       <c r="T20">
-        <v>0.02582633616072002</v>
+        <v>0.003351944061515576</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>9.450669239726009</v>
+        <v>0.73368</v>
       </c>
       <c r="H21">
-        <v>9.450669239726009</v>
+        <v>2.20104</v>
       </c>
       <c r="I21">
-        <v>0.4001664598291719</v>
+        <v>0.02561819473782978</v>
       </c>
       <c r="J21">
-        <v>0.4001664598291719</v>
+        <v>0.02561819473782978</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>26.2704820827443</v>
+        <v>26.60585</v>
       </c>
       <c r="N21">
-        <v>26.2704820827443</v>
+        <v>79.81755000000001</v>
       </c>
       <c r="O21">
-        <v>0.1972176046216286</v>
+        <v>0.1797412673170669</v>
       </c>
       <c r="P21">
-        <v>0.1972176046216286</v>
+        <v>0.1797412673170669</v>
       </c>
       <c r="Q21">
-        <v>248.2736369321648</v>
+        <v>19.520180028</v>
       </c>
       <c r="R21">
-        <v>248.2736369321648</v>
+        <v>175.681620252</v>
       </c>
       <c r="S21">
-        <v>0.07891987065742645</v>
+        <v>0.004604646788552939</v>
       </c>
       <c r="T21">
-        <v>0.07891987065742645</v>
+        <v>0.00460464678855294</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>9.450669239726009</v>
+        <v>0.73368</v>
       </c>
       <c r="H22">
-        <v>9.450669239726009</v>
+        <v>2.20104</v>
       </c>
       <c r="I22">
-        <v>0.4001664598291719</v>
+        <v>0.02561819473782978</v>
       </c>
       <c r="J22">
-        <v>0.4001664598291719</v>
+        <v>0.02561819473782978</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>23.52039207512</v>
+        <v>25.27238933333333</v>
       </c>
       <c r="N22">
-        <v>23.52039207512</v>
+        <v>75.817168</v>
       </c>
       <c r="O22">
-        <v>0.1765721455056045</v>
+        <v>0.1707328007526035</v>
       </c>
       <c r="P22">
-        <v>0.1765721455056045</v>
+        <v>0.1707328007526035</v>
       </c>
       <c r="Q22">
-        <v>222.283445890632</v>
+        <v>18.54184660608</v>
       </c>
       <c r="R22">
-        <v>222.283445890632</v>
+        <v>166.87661945472</v>
       </c>
       <c r="S22">
-        <v>0.07065825037141919</v>
+        <v>0.004373866137815288</v>
       </c>
       <c r="T22">
-        <v>0.07065825037141919</v>
+        <v>0.004373866137815288</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>9.450669239726009</v>
+        <v>0.73368</v>
       </c>
       <c r="H23">
-        <v>9.450669239726009</v>
+        <v>2.20104</v>
       </c>
       <c r="I23">
-        <v>0.4001664598291719</v>
+        <v>0.02561819473782978</v>
       </c>
       <c r="J23">
-        <v>0.4001664598291719</v>
+        <v>0.02561819473782978</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>36.4379275743489</v>
+        <v>36.48521533333334</v>
       </c>
       <c r="N23">
-        <v>36.4379275743489</v>
+        <v>109.455646</v>
       </c>
       <c r="O23">
-        <v>0.2735465900836939</v>
+        <v>0.2464833426614604</v>
       </c>
       <c r="P23">
-        <v>0.2735465900836939</v>
+        <v>0.2464833426614603</v>
       </c>
       <c r="Q23">
-        <v>344.3628012862633</v>
+        <v>26.76847278576</v>
       </c>
       <c r="R23">
-        <v>344.3628012862633</v>
+        <v>240.91625507184</v>
       </c>
       <c r="S23">
-        <v>0.1094641705521334</v>
+        <v>0.006314458271932518</v>
       </c>
       <c r="T23">
-        <v>0.1094641705521334</v>
+        <v>0.006314458271932518</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>27</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>9.450669239726009</v>
+        <v>0.73368</v>
       </c>
       <c r="H24">
-        <v>9.450669239726009</v>
+        <v>2.20104</v>
       </c>
       <c r="I24">
-        <v>0.4001664598291719</v>
+        <v>0.02561819473782978</v>
       </c>
       <c r="J24">
-        <v>0.4001664598291719</v>
+        <v>0.02561819473782978</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>28.9585582898079</v>
+        <v>29.48431666666667</v>
       </c>
       <c r="N24">
-        <v>28.9585582898079</v>
+        <v>88.45295</v>
       </c>
       <c r="O24">
-        <v>0.2173975141081657</v>
+        <v>0.1991873382599836</v>
       </c>
       <c r="P24">
-        <v>0.2173975141081657</v>
+        <v>0.1991873382599836</v>
       </c>
       <c r="Q24">
-        <v>273.6777560563002</v>
+        <v>21.632053452</v>
       </c>
       <c r="R24">
-        <v>273.6777560563002</v>
+        <v>194.688481068</v>
       </c>
       <c r="S24">
-        <v>0.08699519359632714</v>
+        <v>0.005102820020854231</v>
       </c>
       <c r="T24">
-        <v>0.08699519359632714</v>
+        <v>0.005102820020854232</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,805 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.73368</v>
+      </c>
+      <c r="H25">
+        <v>2.20104</v>
+      </c>
+      <c r="I25">
+        <v>0.02561819473782978</v>
+      </c>
+      <c r="J25">
+        <v>0.02561819473782978</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>10.80759633333333</v>
+      </c>
+      <c r="N25">
+        <v>32.422789</v>
+      </c>
+      <c r="O25">
+        <v>0.07301292992347995</v>
+      </c>
+      <c r="P25">
+        <v>0.07301292992347994</v>
+      </c>
+      <c r="Q25">
+        <v>7.929317277840001</v>
+      </c>
+      <c r="R25">
+        <v>71.36385550056001</v>
+      </c>
+      <c r="S25">
+        <v>0.001870459457159228</v>
+      </c>
+      <c r="T25">
+        <v>0.001870459457159228</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.08448499999999999</v>
+      </c>
+      <c r="H26">
+        <v>0.253455</v>
+      </c>
+      <c r="I26">
+        <v>0.00294999615966845</v>
+      </c>
+      <c r="J26">
+        <v>0.002949996159668451</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>19.367679</v>
+      </c>
+      <c r="N26">
+        <v>58.10303699999999</v>
+      </c>
+      <c r="O26">
+        <v>0.1308423210854057</v>
+      </c>
+      <c r="P26">
+        <v>0.1308423210854057</v>
+      </c>
+      <c r="Q26">
+        <v>1.636278360315</v>
+      </c>
+      <c r="R26">
+        <v>14.726505242835</v>
+      </c>
+      <c r="S26">
+        <v>0.0003859843447240533</v>
+      </c>
+      <c r="T26">
+        <v>0.0003859843447240533</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G27">
+        <v>0.08448499999999999</v>
+      </c>
+      <c r="H27">
+        <v>0.253455</v>
+      </c>
+      <c r="I27">
+        <v>0.00294999615966845</v>
+      </c>
+      <c r="J27">
+        <v>0.002949996159668451</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>26.60585</v>
+      </c>
+      <c r="N27">
+        <v>79.81755000000001</v>
+      </c>
+      <c r="O27">
+        <v>0.1797412673170669</v>
+      </c>
+      <c r="P27">
+        <v>0.1797412673170669</v>
+      </c>
+      <c r="Q27">
+        <v>2.24779523725</v>
+      </c>
+      <c r="R27">
+        <v>20.23015713525</v>
+      </c>
+      <c r="S27">
+        <v>0.0005302360483192877</v>
+      </c>
+      <c r="T27">
+        <v>0.0005302360483192878</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G28">
+        <v>0.08448499999999999</v>
+      </c>
+      <c r="H28">
+        <v>0.253455</v>
+      </c>
+      <c r="I28">
+        <v>0.00294999615966845</v>
+      </c>
+      <c r="J28">
+        <v>0.002949996159668451</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>25.27238933333333</v>
+      </c>
+      <c r="N28">
+        <v>75.817168</v>
+      </c>
+      <c r="O28">
+        <v>0.1707328007526035</v>
+      </c>
+      <c r="P28">
+        <v>0.1707328007526035</v>
+      </c>
+      <c r="Q28">
+        <v>2.135137812826666</v>
+      </c>
+      <c r="R28">
+        <v>19.21624031544</v>
+      </c>
+      <c r="S28">
+        <v>0.000503661106549619</v>
+      </c>
+      <c r="T28">
+        <v>0.0005036611065496191</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G29">
+        <v>0.08448499999999999</v>
+      </c>
+      <c r="H29">
+        <v>0.253455</v>
+      </c>
+      <c r="I29">
+        <v>0.00294999615966845</v>
+      </c>
+      <c r="J29">
+        <v>0.002949996159668451</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>36.48521533333334</v>
+      </c>
+      <c r="N29">
+        <v>109.455646</v>
+      </c>
+      <c r="O29">
+        <v>0.2464833426614604</v>
+      </c>
+      <c r="P29">
+        <v>0.2464833426614603</v>
+      </c>
+      <c r="Q29">
+        <v>3.082453417436667</v>
+      </c>
+      <c r="R29">
+        <v>27.74208075693</v>
+      </c>
+      <c r="S29">
+        <v>0.0007271249142735507</v>
+      </c>
+      <c r="T29">
+        <v>0.0007271249142735507</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G30">
+        <v>0.08448499999999999</v>
+      </c>
+      <c r="H30">
+        <v>0.253455</v>
+      </c>
+      <c r="I30">
+        <v>0.00294999615966845</v>
+      </c>
+      <c r="J30">
+        <v>0.002949996159668451</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>29.48431666666667</v>
+      </c>
+      <c r="N30">
+        <v>88.45295</v>
+      </c>
+      <c r="O30">
+        <v>0.1991873382599836</v>
+      </c>
+      <c r="P30">
+        <v>0.1991873382599836</v>
+      </c>
+      <c r="Q30">
+        <v>2.490982493583333</v>
+      </c>
+      <c r="R30">
+        <v>22.41884244225</v>
+      </c>
+      <c r="S30">
+        <v>0.0005876018829215321</v>
+      </c>
+      <c r="T30">
+        <v>0.0005876018829215322</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G31">
+        <v>0.08448499999999999</v>
+      </c>
+      <c r="H31">
+        <v>0.253455</v>
+      </c>
+      <c r="I31">
+        <v>0.00294999615966845</v>
+      </c>
+      <c r="J31">
+        <v>0.002949996159668451</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>10.80759633333333</v>
+      </c>
+      <c r="N31">
+        <v>32.422789</v>
+      </c>
+      <c r="O31">
+        <v>0.07301292992347995</v>
+      </c>
+      <c r="P31">
+        <v>0.07301292992347994</v>
+      </c>
+      <c r="Q31">
+        <v>0.9130797762216667</v>
+      </c>
+      <c r="R31">
+        <v>8.217717985995</v>
+      </c>
+      <c r="S31">
+        <v>0.0002153878628804075</v>
+      </c>
+      <c r="T31">
+        <v>0.0002153878628804075</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>13.91349066666667</v>
+      </c>
+      <c r="H32">
+        <v>41.740472</v>
+      </c>
+      <c r="I32">
+        <v>0.4858228565336982</v>
+      </c>
+      <c r="J32">
+        <v>0.4858228565336983</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>19.367679</v>
+      </c>
+      <c r="N32">
+        <v>58.10303699999999</v>
+      </c>
+      <c r="O32">
+        <v>0.1308423210854057</v>
+      </c>
+      <c r="P32">
+        <v>0.1308423210854057</v>
+      </c>
+      <c r="Q32">
+        <v>269.472021001496</v>
+      </c>
+      <c r="R32">
+        <v>2425.248189013464</v>
+      </c>
+      <c r="S32">
+        <v>0.06356619018521116</v>
+      </c>
+      <c r="T32">
+        <v>0.06356619018521116</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>13.91349066666667</v>
+      </c>
+      <c r="H33">
+        <v>41.740472</v>
+      </c>
+      <c r="I33">
+        <v>0.4858228565336982</v>
+      </c>
+      <c r="J33">
+        <v>0.4858228565336983</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>26.60585</v>
+      </c>
+      <c r="N33">
+        <v>79.81755000000001</v>
+      </c>
+      <c r="O33">
+        <v>0.1797412673170669</v>
+      </c>
+      <c r="P33">
+        <v>0.1797412673170669</v>
+      </c>
+      <c r="Q33">
+        <v>370.1802456537334</v>
+      </c>
+      <c r="R33">
+        <v>3331.6222108836</v>
+      </c>
+      <c r="S33">
+        <v>0.08732241592496449</v>
+      </c>
+      <c r="T33">
+        <v>0.08732241592496451</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>13.91349066666667</v>
+      </c>
+      <c r="H34">
+        <v>41.740472</v>
+      </c>
+      <c r="I34">
+        <v>0.4858228565336982</v>
+      </c>
+      <c r="J34">
+        <v>0.4858228565336983</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>25.27238933333333</v>
+      </c>
+      <c r="N34">
+        <v>75.817168</v>
+      </c>
+      <c r="O34">
+        <v>0.1707328007526035</v>
+      </c>
+      <c r="P34">
+        <v>0.1707328007526035</v>
+      </c>
+      <c r="Q34">
+        <v>351.6271531136995</v>
+      </c>
+      <c r="R34">
+        <v>3164.644378023296</v>
+      </c>
+      <c r="S34">
+        <v>0.08294589696562858</v>
+      </c>
+      <c r="T34">
+        <v>0.0829458969656286</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>9.450669239726009</v>
-      </c>
-      <c r="H25">
-        <v>9.450669239726009</v>
-      </c>
-      <c r="I25">
-        <v>0.4001664598291719</v>
-      </c>
-      <c r="J25">
-        <v>0.4001664598291719</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>9.421251595856051</v>
-      </c>
-      <c r="N25">
-        <v>9.421251595856051</v>
-      </c>
-      <c r="O25">
-        <v>0.07072716314912518</v>
-      </c>
-      <c r="P25">
-        <v>0.07072716314912518</v>
-      </c>
-      <c r="Q25">
-        <v>89.03713265667635</v>
-      </c>
-      <c r="R25">
-        <v>89.03713265667635</v>
-      </c>
-      <c r="S25">
-        <v>0.02830263849114569</v>
-      </c>
-      <c r="T25">
-        <v>0.02830263849114569</v>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>13.91349066666667</v>
+      </c>
+      <c r="H35">
+        <v>41.740472</v>
+      </c>
+      <c r="I35">
+        <v>0.4858228565336982</v>
+      </c>
+      <c r="J35">
+        <v>0.4858228565336983</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>36.48521533333334</v>
+      </c>
+      <c r="N35">
+        <v>109.455646</v>
+      </c>
+      <c r="O35">
+        <v>0.2464833426614604</v>
+      </c>
+      <c r="P35">
+        <v>0.2464833426614603</v>
+      </c>
+      <c r="Q35">
+        <v>507.6367030116569</v>
+      </c>
+      <c r="R35">
+        <v>4568.730327104911</v>
+      </c>
+      <c r="S35">
+        <v>0.119747241619765</v>
+      </c>
+      <c r="T35">
+        <v>0.119747241619765</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>13.91349066666667</v>
+      </c>
+      <c r="H36">
+        <v>41.740472</v>
+      </c>
+      <c r="I36">
+        <v>0.4858228565336982</v>
+      </c>
+      <c r="J36">
+        <v>0.4858228565336983</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>29.48431666666667</v>
+      </c>
+      <c r="N36">
+        <v>88.45295</v>
+      </c>
+      <c r="O36">
+        <v>0.1991873382599836</v>
+      </c>
+      <c r="P36">
+        <v>0.1991873382599836</v>
+      </c>
+      <c r="Q36">
+        <v>410.2297647547111</v>
+      </c>
+      <c r="R36">
+        <v>3692.0678827924</v>
+      </c>
+      <c r="S36">
+        <v>0.09676976165880923</v>
+      </c>
+      <c r="T36">
+        <v>0.09676976165880924</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>13.91349066666667</v>
+      </c>
+      <c r="H37">
+        <v>41.740472</v>
+      </c>
+      <c r="I37">
+        <v>0.4858228565336982</v>
+      </c>
+      <c r="J37">
+        <v>0.4858228565336983</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>10.80759633333333</v>
+      </c>
+      <c r="N37">
+        <v>32.422789</v>
+      </c>
+      <c r="O37">
+        <v>0.07301292992347995</v>
+      </c>
+      <c r="P37">
+        <v>0.07301292992347994</v>
+      </c>
+      <c r="Q37">
+        <v>150.3713907129342</v>
+      </c>
+      <c r="R37">
+        <v>1353.342516416408</v>
+      </c>
+      <c r="S37">
+        <v>0.03547135017931976</v>
+      </c>
+      <c r="T37">
+        <v>0.03547135017931976</v>
       </c>
     </row>
   </sheetData>
